--- a/41 размер/Сессия 1/Пункты выдачи_import.xlsx
+++ b/41 размер/Сессия 1/Пункты выдачи_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kseniaharitonova/Downloads/пункты выдачи/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Под каблуком\41 размер\Сессия 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5002A0A4-6827-DE45-B882-824E87E7FC59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F3D892-E7EA-423E-9FD9-8E8298B77CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="3200" windowWidth="26480" windowHeight="13380" xr2:uid="{7581F25D-0303-894B-A54D-BACF714442F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7581F25D-0303-894B-A54D-BACF714442F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,125 +20,110 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>344288, г. Москва, ул. Чехова, 1</t>
-  </si>
-  <si>
-    <t>614164, г.Москва,  ул. Степная, 30</t>
-  </si>
-  <si>
-    <t>394242, г. Москва, ул. Коммунистическая, 43</t>
-  </si>
-  <si>
-    <t>660540, г. Москва, ул. Солнечная, 25</t>
-  </si>
-  <si>
-    <t>125837, г. Москва, ул. Шоссейная, 40</t>
-  </si>
-  <si>
-    <t>125703, г. Москва, ул. Партизанская, 49</t>
-  </si>
-  <si>
-    <t>625283, г. Москва, ул. Победы, 46</t>
-  </si>
-  <si>
-    <t>614611, г. Москва, ул. Молодежная, 50</t>
-  </si>
-  <si>
-    <t>454311, г.Москва, ул. Новая, 19</t>
-  </si>
-  <si>
-    <t>660007, г.Москва, ул. Октябрьская, 19</t>
-  </si>
-  <si>
-    <t>603036, г. Москва, ул. Садовая, 4</t>
-  </si>
-  <si>
-    <t>450983, г.Москва, ул. Комсомольская, 26</t>
-  </si>
-  <si>
-    <t>394782, г. Москва, ул. Чехова, 3</t>
-  </si>
-  <si>
-    <t>603002, г. Москва, ул. Дзержинского, 28</t>
-  </si>
-  <si>
-    <t>450558, г. Москва, ул. Набережная, 30</t>
-  </si>
-  <si>
-    <t>394060, г.Москва, ул. Фрунзе, 43</t>
-  </si>
-  <si>
-    <t>410661, г. Москва, ул. Школьная, 50</t>
-  </si>
-  <si>
-    <t>625590, г. Москва, ул. Коммунистическая, 20</t>
-  </si>
-  <si>
-    <t>625683, г. Москва, ул. 8 Марта</t>
-  </si>
-  <si>
-    <t>400562, г. Москва, ул. Зеленая, 32</t>
-  </si>
-  <si>
-    <t>614510, г. Москва, ул. Маяковского, 47</t>
-  </si>
-  <si>
-    <t>410542, г. Москва, ул. Светлая, 46</t>
-  </si>
-  <si>
-    <t>620839, г. Москва, ул. Цветочная, 8</t>
-  </si>
-  <si>
-    <t>443890, г. Москва, ул. Коммунистическая, 1</t>
-  </si>
-  <si>
-    <t>603379, г. Москва, ул. Спортивная, 46</t>
-  </si>
-  <si>
-    <t>603721, г. Москва, ул. Гоголя, 41</t>
-  </si>
-  <si>
-    <t>410172, г. Москва, ул. Северная, 13</t>
-  </si>
-  <si>
-    <t>420151, г. Москва, ул. Вишневая, 32</t>
-  </si>
-  <si>
-    <t>125061, г. Москва, ул. Подгорная, 8</t>
-  </si>
-  <si>
-    <t>630370, г. Москва, ул. Шоссейная, 24</t>
-  </si>
-  <si>
-    <t>614753, г. Москва, ул. Полевая, 35</t>
-  </si>
-  <si>
-    <t>426030, г. Москва, ул. Маяковского, 44</t>
-  </si>
-  <si>
-    <t>450375, г. Москва ул. Клубная, 44</t>
-  </si>
-  <si>
-    <t>625560, г. Москва, ул. Некрасова, 12</t>
-  </si>
-  <si>
-    <t>630201, г. Москва, ул. Комсомольская, 17</t>
-  </si>
-  <si>
-    <t>190949, г. Москва, ул. Мичурина, 26</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+  <si>
+    <t xml:space="preserve"> г. Москва</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Чехова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> г.Москва</t>
+  </si>
+  <si>
+    <t>  ул. Степная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Коммунистическая</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Солнечная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Шоссейная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Партизанская</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Победы</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Молодежная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Новая</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Октябрьская</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Садовая</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Комсомольская</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Дзержинского</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Набережная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Фрунзе</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Школьная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. 8 Марта</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Зеленая</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Маяковского</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Светлая</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Цветочная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Спортивная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Гоголя</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Северная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Вишневая</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Подгорная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Полевая</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Некрасова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Мичурина</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> г. Москва </t>
+  </si>
+  <si>
+    <t>ул. Клубная</t>
   </si>
 </sst>
 </file>
@@ -182,9 +167,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -499,192 +485,628 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4115BD41-1C4B-0647-91E3-25B837D930B7}">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="1">
+        <v>344288</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B2" s="1">
+        <v>614164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="E2" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>394242</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="E3" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>660540</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="E4" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>125837</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="E5" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>125703</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="E6" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>625283</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="E7" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>614611</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="E8" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>454311</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="E9" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>660007</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="E10" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>603036</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>450983</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="E12" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>394782</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B14" s="1">
+        <v>603002</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B15" s="1">
+        <v>450558</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B16" s="1">
+        <v>394060</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B17" s="1">
+        <v>410661</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B18" s="1">
+        <v>625590</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B19" s="1">
+        <v>625683</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B20" s="1">
+        <v>400562</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B21" s="1">
+        <v>614510</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="B22" s="1">
+        <v>410542</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B23" s="1">
+        <v>620839</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B24" s="1">
+        <v>443890</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B25" s="1">
+        <v>603379</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B26" s="1">
+        <v>603721</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="B27" s="1">
+        <v>410172</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B28" s="1">
+        <v>420151</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B29" s="1">
+        <v>125061</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="B30" s="1">
+        <v>630370</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="B31" s="1">
+        <v>614753</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="B32" s="1">
+        <v>426030</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="B33" s="1">
+        <v>450375</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="B34" s="1">
+        <v>625560</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>35</v>
+      </c>
+      <c r="B35" s="1">
+        <v>630201</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1">
+        <v>190949</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
